--- a/src/test/resources/module2/KWD-loginGmail.xlsx
+++ b/src/test/resources/module2/KWD-loginGmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
-  <si>
-    <t>Action</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Value</t>
   </si>
@@ -30,9 +27,6 @@
     <t>Options</t>
   </si>
   <si>
-    <t>IfElementNotPresent</t>
-  </si>
-  <si>
     <t>IfElementPresent</t>
   </si>
   <si>
@@ -54,31 +48,22 @@
     <t>login.password</t>
   </si>
   <si>
-    <t>&lt;{app.username}&gt;</t>
-  </si>
-  <si>
-    <t>9/10/2012</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>Web Element</t>
-  </si>
-  <si>
-    <t>PutValueIn</t>
-  </si>
-  <si>
-    <t>getuser</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>&lt;?getuser?&gt;</t>
-  </si>
-  <si>
-    <t>CaptureScreenshot</t>
+    <t>pavan.mailme</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>AssertTitle</t>
+  </si>
+  <si>
+    <t>VerifyTitle</t>
   </si>
 </sst>
 </file>
@@ -143,13 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,11 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,241 +452,117 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
